--- a/Maquinaria/operadores.xlsx
+++ b/Maquinaria/operadores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misck\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maquinaria\Maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B4ED7E-7627-4B32-9B1C-F644AE5BEBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BEDDB5-3D65-4D66-BB9E-DEB0ECD69990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51E68BC6-D384-4471-9357-9E23147655FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{456DB7B9-7EE9-4AB2-993D-C0AFB23B032F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,133 +34,553 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
-  <si>
-    <t>JAIME DANIEL</t>
-  </si>
-  <si>
-    <t>HECTOR ARTURO</t>
-  </si>
-  <si>
-    <t>CARLOS GUSTAVO</t>
-  </si>
-  <si>
-    <t>JAVIER ALBERTO</t>
-  </si>
-  <si>
-    <t>EDITH ISABEL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="180">
+  <si>
+    <t>ARAYA OSSANDON</t>
   </si>
   <si>
     <t>NELSON RODRIGO</t>
   </si>
   <si>
-    <t>LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t>JORGE ALEJANDRO</t>
-  </si>
-  <si>
-    <t>WILBERTO SANTO</t>
+    <t>13874366-7</t>
+  </si>
+  <si>
+    <t>BENAVIDES DIAZ</t>
+  </si>
+  <si>
+    <t>JAVIER ALEJANDRO</t>
+  </si>
+  <si>
+    <t>17492250-0</t>
+  </si>
+  <si>
+    <t>CALLEJAS BRAVO</t>
   </si>
   <si>
     <t>CRISTIAN FERNANDO</t>
   </si>
   <si>
-    <t>BERNARDO ANASTACIO</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO</t>
+    <t>19538761-3</t>
+  </si>
+  <si>
+    <t>CARVAJAL GOMEZ</t>
+  </si>
+  <si>
+    <t>FRANCHESCOLY CRISTIAN</t>
+  </si>
+  <si>
+    <t>17828251-4</t>
+  </si>
+  <si>
+    <t>CORONEL CORTES</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL</t>
+  </si>
+  <si>
+    <t>15813542-6</t>
+  </si>
+  <si>
+    <t>COROCEO LEYTON</t>
+  </si>
+  <si>
+    <t>ALVARO RODRIGO</t>
+  </si>
+  <si>
+    <t>18822915-8</t>
+  </si>
+  <si>
+    <t>CORTES TAPIA</t>
+  </si>
+  <si>
+    <t>GUILLERMO ANDRES</t>
+  </si>
+  <si>
+    <t>15053026-1</t>
+  </si>
+  <si>
+    <t>ESCUDERO LUNA</t>
+  </si>
+  <si>
+    <t>JEAN PIERRE</t>
+  </si>
+  <si>
+    <t>19301450-K</t>
+  </si>
+  <si>
+    <t>GAMBOA  GONZALEZ</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>18178699-K</t>
+  </si>
+  <si>
+    <t>GONZALEZ BARAHONA</t>
+  </si>
+  <si>
+    <t>SEBASTIAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>17011579-1</t>
+  </si>
+  <si>
+    <t>GUTIERREZ VALLEJOS</t>
+  </si>
+  <si>
+    <t>CHARLES PATRICIO FABIAN</t>
+  </si>
+  <si>
+    <t>17527901-6</t>
+  </si>
+  <si>
+    <t>HUANCA AVALOS</t>
+  </si>
+  <si>
+    <t>CRISTIAN ISMAEL</t>
+  </si>
+  <si>
+    <t>16586356-9</t>
+  </si>
+  <si>
+    <t>LIQUE TINTE</t>
+  </si>
+  <si>
+    <t>ORLANDO MANUEL</t>
+  </si>
+  <si>
+    <t>13528994-9</t>
+  </si>
+  <si>
+    <t>MARIN CONTRERAS</t>
+  </si>
+  <si>
+    <t>JONATHAN JEISSON</t>
+  </si>
+  <si>
+    <t>18869051-3</t>
+  </si>
+  <si>
+    <t>MARINOVICH VARAS</t>
+  </si>
+  <si>
+    <t>18230931-1</t>
+  </si>
+  <si>
+    <t>MAZUELA ARGANDOÑA</t>
+  </si>
+  <si>
+    <t>CARLOS PATRICIO</t>
+  </si>
+  <si>
+    <t>15673064-5</t>
+  </si>
+  <si>
+    <t>MUNIZAGA CONTRERAS</t>
+  </si>
+  <si>
+    <t>SANDRO ADAN</t>
+  </si>
+  <si>
+    <t>12815628-3</t>
+  </si>
+  <si>
+    <t>NEIRA NEIRA</t>
+  </si>
+  <si>
+    <t>PATRICIO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>14493454-7</t>
+  </si>
+  <si>
+    <t>PASTEN  JIMENEZ</t>
+  </si>
+  <si>
+    <t>GILBERTO EDUARDO</t>
+  </si>
+  <si>
+    <t>14400326-8</t>
+  </si>
+  <si>
+    <t>PINTO GALLARDO</t>
+  </si>
+  <si>
+    <t>MAXIMO ISAAC</t>
+  </si>
+  <si>
+    <t>14296621-2</t>
+  </si>
+  <si>
+    <t>PIZARRO PIZARRO</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE</t>
+  </si>
+  <si>
+    <t>12612916-5</t>
+  </si>
+  <si>
+    <t>ROBLE COLLAO</t>
+  </si>
+  <si>
+    <t>SERGIO JOSE</t>
+  </si>
+  <si>
+    <t>13007022-1</t>
+  </si>
+  <si>
+    <t>SAAVEDRA FLORES</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>15768504-K</t>
+  </si>
+  <si>
+    <t>TORRES ARACENA</t>
+  </si>
+  <si>
+    <t>DANIEL HUMBERTO</t>
+  </si>
+  <si>
+    <t>15885192-K</t>
+  </si>
+  <si>
+    <t>UYABAN LEIVA</t>
+  </si>
+  <si>
+    <t>JOHN JAIRO</t>
+  </si>
+  <si>
+    <t>26196201-2</t>
+  </si>
+  <si>
+    <t>VARAS MELENDEZ</t>
+  </si>
+  <si>
+    <t>MATIAS IGNACIO</t>
+  </si>
+  <si>
+    <t>19864583-4</t>
+  </si>
+  <si>
+    <t>VERA ESTAY</t>
+  </si>
+  <si>
+    <t>JUAN OMAR</t>
+  </si>
+  <si>
+    <t>12821197-7</t>
+  </si>
+  <si>
+    <t>VILLALOBOS FERNANDEZ</t>
+  </si>
+  <si>
+    <t>CARLOS WILFREDO</t>
+  </si>
+  <si>
+    <t>13417126-K</t>
+  </si>
+  <si>
+    <t>VILLALON VASQUEZ</t>
+  </si>
+  <si>
+    <t>BELEN ALEJANDRA</t>
+  </si>
+  <si>
+    <t>18816357-2</t>
+  </si>
+  <si>
+    <t>ZAMBRA BRAVO</t>
+  </si>
+  <si>
+    <t>MANUEL ANDRES</t>
+  </si>
+  <si>
+    <t>18923112-1</t>
+  </si>
+  <si>
+    <t>dtTxt_Nombre</t>
+  </si>
+  <si>
+    <t>dtTxt_Apellidos</t>
+  </si>
+  <si>
+    <t>AGUILA VELASQUEZ</t>
+  </si>
+  <si>
+    <t>MILTON PATRICIO</t>
+  </si>
+  <si>
+    <t>ALEGRE TOLMO</t>
+  </si>
+  <si>
+    <t>JAIME ABEL</t>
+  </si>
+  <si>
+    <t>ALMUNA COLLAO</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>CARRASCO MUÑOZ</t>
+  </si>
+  <si>
+    <t>FERNANDO MISAEL</t>
+  </si>
+  <si>
+    <t>CARVACHO SARMIENTO</t>
   </si>
   <si>
     <t>MURIEL ALEJANDRA</t>
   </si>
   <si>
-    <t>FRANCHESCOLY CRISTIAN</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>RICARDO ANTONIO</t>
-  </si>
-  <si>
-    <t>EXON RAMIRO</t>
-  </si>
-  <si>
-    <t>PEDRO ALEXIS</t>
-  </si>
-  <si>
-    <t>JERARD ALEXIS</t>
-  </si>
-  <si>
-    <t>COLLAO</t>
-  </si>
-  <si>
-    <t>TAVALI</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>CORREA</t>
-  </si>
-  <si>
-    <t>JARA</t>
-  </si>
-  <si>
-    <t>OSSANDON</t>
-  </si>
-  <si>
-    <t>GODOY</t>
-  </si>
-  <si>
-    <t>PALLERO</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>CAMPUSANO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>MONTAÑO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
+    <t>CAVIERES SILVA</t>
+  </si>
+  <si>
+    <t>LORENZO LUCIANO</t>
+  </si>
+  <si>
+    <t>CHACA ACHO</t>
+  </si>
+  <si>
+    <t>FRANK</t>
+  </si>
+  <si>
+    <t>DONOSO CONSTANTE</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>GARCÍA ARAYA</t>
+  </si>
+  <si>
+    <t>EDUARDO HERMOGENES</t>
+  </si>
+  <si>
+    <t>GALLARDO OSSANDON</t>
+  </si>
+  <si>
+    <t>VICENTE ANTONIO</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>IRIBARREN NEIRA</t>
+  </si>
+  <si>
+    <t>GULLIANO ANTONIO</t>
+  </si>
+  <si>
+    <t>MIRANDA MARIN</t>
+  </si>
+  <si>
+    <t>JORDAN ANDRES</t>
+  </si>
+  <si>
+    <t>MUÑOZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>MUÑOZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>NORAMBUENA MONTERO</t>
+  </si>
+  <si>
+    <t>DANIEL PATRICIO</t>
+  </si>
+  <si>
+    <t>OPAZO GONZALEZ</t>
+  </si>
+  <si>
+    <t>LUIS EMILIANO</t>
+  </si>
+  <si>
+    <t>ORTIZ CASTILLO</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>ORTIZ SALINAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO JAVIER </t>
+  </si>
+  <si>
+    <t>RAMOS CONDE</t>
+  </si>
+  <si>
+    <t>FELIX</t>
+  </si>
+  <si>
+    <t>ROBLEDO ROBLEDO</t>
+  </si>
+  <si>
+    <t>FAVIO</t>
+  </si>
+  <si>
+    <t>ROJAS ALVAREZ</t>
+  </si>
+  <si>
+    <t>FALCON ANTONIO</t>
+  </si>
+  <si>
+    <t>ROJAS CASTILLO</t>
+  </si>
+  <si>
+    <t>YURIT DANN</t>
+  </si>
+  <si>
+    <t>ROJO VERGARA</t>
+  </si>
+  <si>
+    <t>MAIKOL JAVIER</t>
+  </si>
+  <si>
+    <t>RUZ  GALAZ</t>
+  </si>
+  <si>
+    <t>MARCELO HUMBERTO</t>
+  </si>
+  <si>
+    <t>SALAMANCA ALBORNOZ</t>
+  </si>
+  <si>
+    <t>ANGELO JEOVANNI</t>
+  </si>
+  <si>
+    <t>TRIPAINAO GONZALEZ</t>
+  </si>
+  <si>
+    <t>ALBERTINO LAUTARO</t>
+  </si>
+  <si>
+    <t>VALENZUELA IBARRA</t>
+  </si>
+  <si>
+    <t>ALVARO</t>
+  </si>
+  <si>
+    <t>VILLANUEVA DONOSO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA ALLENDE</t>
+  </si>
+  <si>
+    <t>JUAN GUILLERMO</t>
+  </si>
+  <si>
+    <t>11816734-1</t>
+  </si>
+  <si>
+    <t>18751570-K</t>
+  </si>
+  <si>
+    <t>12222615-8</t>
+  </si>
+  <si>
+    <t>15440884-3</t>
+  </si>
+  <si>
+    <t>19856834-1</t>
+  </si>
+  <si>
+    <t>10796541-6</t>
+  </si>
+  <si>
+    <t>24234730-7</t>
+  </si>
+  <si>
+    <t>15321180-9</t>
+  </si>
+  <si>
+    <t>9295352-1</t>
+  </si>
+  <si>
+    <t>11938094-4</t>
+  </si>
+  <si>
+    <t>16866138-K</t>
+  </si>
+  <si>
+    <t>18042350-8</t>
+  </si>
+  <si>
+    <t>17437827-4</t>
+  </si>
+  <si>
+    <t>15658961-0</t>
+  </si>
+  <si>
+    <t>16110212-1</t>
+  </si>
+  <si>
+    <t>16733684-1</t>
+  </si>
+  <si>
+    <t>19897623-7</t>
+  </si>
+  <si>
+    <t>15024628-8</t>
+  </si>
+  <si>
+    <t>19322008-8</t>
+  </si>
+  <si>
+    <t>25217372-2</t>
+  </si>
+  <si>
+    <t>16595916-7</t>
+  </si>
+  <si>
+    <t>17939374-3</t>
+  </si>
+  <si>
+    <t>14099444-8</t>
+  </si>
+  <si>
+    <t>16306942-3</t>
+  </si>
+  <si>
+    <t>10092406-4</t>
+  </si>
+  <si>
+    <t>17020041-1</t>
+  </si>
+  <si>
+    <t>12568932-4</t>
+  </si>
+  <si>
+    <t>15607036-K</t>
+  </si>
+  <si>
+    <t>18710250-2</t>
+  </si>
+  <si>
+    <t>16593385-0</t>
   </si>
   <si>
     <t>idNum_RUT</t>
-  </si>
-  <si>
-    <t>dtTxt_Nombre</t>
-  </si>
-  <si>
-    <t>dtTxt_Apellidos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +588,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,23 +626,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FB687AA7-3019-42A4-9252-8E7B93C454DB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,242 +951,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCE2501-B13F-4899-9B0B-E65C4F64BB6C}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DA3568-854F-4C08-BA91-648429BAF4E7}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>39</v>
+      <c r="A1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12222625</v>
+      <c r="A2" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>17800363</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>11939112</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>16846102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>15501015</v>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>13874366</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8890114</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>16307440</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>22935115</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>19538761</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>22666182</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>13213359</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>19856834</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>17828251</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>12878628</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>13360328</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>21624655</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>15042590</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>20798264</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C61">
+    <sortCondition ref="C2:C61"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>